--- a/ig/nr-update-deps/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-update-deps/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:11:56+00:00</t>
+    <t>2024-02-07T14:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-deps/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-update-deps/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:52:46+00:00</t>
+    <t>2024-02-07T15:04:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-deps/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-update-deps/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T15:04:14+00:00</t>
+    <t>2024-02-07T15:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
